--- a/ozone/ANO-RCC-MB/ozone_149.50/ozone_149.50_energies.xlsx
+++ b/ozone/ANO-RCC-MB/ozone_149.50/ozone_149.50_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1012891834</v>
+        <v>-0.101290414</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-224.31831185</v>
+        <v>-224.31831186</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-224.41960104</v>
+        <v>-224.41960227</v>
       </c>
     </row>
   </sheetData>
